--- a/biology/Botanique/Maïs_violet/Maïs_violet.xlsx
+++ b/biology/Botanique/Maïs_violet/Maïs_violet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ma%C3%AFs_violet</t>
+          <t>Maïs_violet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zea mays 'subsp.' mays
 La dénomination maïs violet (castillan : maíz morado, runa simi : kulli sara, aymara : tunqu) s'applique à un ensemble de variétés de maïs violet foncé, endémique des Andes dérivées du maïs « Kculli ». Ce type de maïs pousse dans la région andine du Pérou, de la Bolivie, du Chili et de l'Argentine, et il était déjà cultivé avant l'Empire Inca. Sa coloration particulière est liée à sa teneur en anthocyane.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ma%C3%AFs_violet</t>
+          <t>Maïs_violet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Variétés de maïs violets</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Maíz Morado Canteño - Originaire de la région de la Province de Canta au Pérou
 Maíz Morado Mejorado - Version améliorée
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ma%C3%AFs_violet</t>
+          <t>Maïs_violet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe aussi des maïs bleus assez foncés comme ceux cultivés par les Indiens Hopis.
 </t>
